--- a/environmental_conditions/wild_type_conditions.xlsx
+++ b/environmental_conditions/wild_type_conditions.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/id8006_uminho_pt/Documents/Pycharm_projects/lab_models/environmental_conditions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{FCA6B269-E553-4911-B379-7AAEED1BFC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F4BFBB95-C5F8-4B81-8016-A351AEB54098}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="13_ncr:1_{FCA6B269-E553-4911-B379-7AAEED1BFC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{09E343B3-98F3-4F2B-B759-FC80F0204251}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49D59947-69D5-4711-8775-965F805B02F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49D59947-69D5-4711-8775-965F805B02F1}"/>
   </bookViews>
   <sheets>
-    <sheet name="iCC431" sheetId="1" r:id="rId1"/>
+    <sheet name="iCC390" sheetId="2" r:id="rId1"/>
+    <sheet name="iCC431" sheetId="1" r:id="rId2"/>
+    <sheet name="iCC464" sheetId="4" r:id="rId3"/>
+    <sheet name="iCC644" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'iCC390'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'iCC464'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'iCC644'!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="214">
   <si>
     <t>exchange</t>
   </si>
@@ -111,9 +119,6 @@
     <t>EX_leu__L_e</t>
   </si>
   <si>
-    <t>EX_glu__L__e</t>
-  </si>
-  <si>
     <t>EX_phe__L_e</t>
   </si>
   <si>
@@ -454,6 +459,231 @@
   </si>
   <si>
     <t>EX_cbasp_e</t>
+  </si>
+  <si>
+    <t>EX_ocdca_e</t>
+  </si>
+  <si>
+    <t>EX_glu__L_e</t>
+  </si>
+  <si>
+    <t>EX_thym_e</t>
+  </si>
+  <si>
+    <t>EX_tre_e</t>
+  </si>
+  <si>
+    <t>EX_hdca_e</t>
+  </si>
+  <si>
+    <t>EX_tetdecacid_e</t>
+  </si>
+  <si>
+    <t>EX_ch4s_e</t>
+  </si>
+  <si>
+    <t>EX_orot_e</t>
+  </si>
+  <si>
+    <t>EX_mththf_e</t>
+  </si>
+  <si>
+    <t>EX_hqn_e</t>
+  </si>
+  <si>
+    <t>EX_hexedecacid_e</t>
+  </si>
+  <si>
+    <t>EX_cit_e</t>
+  </si>
+  <si>
+    <t>EX_nac_e</t>
+  </si>
+  <si>
+    <t>EX_a_gal__D_e</t>
+  </si>
+  <si>
+    <t>EX_malt_e</t>
+  </si>
+  <si>
+    <t>EX_2hymeph_e</t>
+  </si>
+  <si>
+    <t>EX_gal_bD_e</t>
+  </si>
+  <si>
+    <t>EX_salcn_e</t>
+  </si>
+  <si>
+    <t>EX_arbt_e</t>
+  </si>
+  <si>
+    <t>EX_lac__D_e</t>
+  </si>
+  <si>
+    <t>EX_ocdcea_e</t>
+  </si>
+  <si>
+    <t>EX_2hbut_e</t>
+  </si>
+  <si>
+    <t>EX_cmp_e</t>
+  </si>
+  <si>
+    <t>EX_so2_e</t>
+  </si>
+  <si>
+    <t>EX_mal__L_e</t>
+  </si>
+  <si>
+    <t>EX_co_e</t>
+  </si>
+  <si>
+    <t>EX_pydam_e</t>
+  </si>
+  <si>
+    <t>EX_raffin_e</t>
+  </si>
+  <si>
+    <t>EX_3ump_e</t>
+  </si>
+  <si>
+    <t>EX_acgam_e</t>
+  </si>
+  <si>
+    <t>EX_acmum_e</t>
+  </si>
+  <si>
+    <t>EX_C16639_e</t>
+  </si>
+  <si>
+    <t>EX_amp_e</t>
+  </si>
+  <si>
+    <t>EX_melib_e</t>
+  </si>
+  <si>
+    <t>EX_3cmp_e</t>
+  </si>
+  <si>
+    <t>EX_3gmp_e</t>
+  </si>
+  <si>
+    <t>EX_oxa_e</t>
+  </si>
+  <si>
+    <t>EX_glyclt_e</t>
+  </si>
+  <si>
+    <t>EX_pydxn_e</t>
+  </si>
+  <si>
+    <t>EX_3amp_e</t>
+  </si>
+  <si>
+    <t>EX_isomal_e</t>
+  </si>
+  <si>
+    <t>EX_stys_e</t>
+  </si>
+  <si>
+    <t>EX_4abut_e</t>
+  </si>
+  <si>
+    <t>EX_tag__D_e</t>
+  </si>
+  <si>
+    <t>EX_2pg_e</t>
+  </si>
+  <si>
+    <t>EX_cbl1_e</t>
+  </si>
+  <si>
+    <t>EX_mnl_e</t>
+  </si>
+  <si>
+    <t>EX_C01019_e</t>
+  </si>
+  <si>
+    <t>EX_3pg_e</t>
+  </si>
+  <si>
+    <t>EX_fruur_e</t>
+  </si>
+  <si>
+    <t>EX_d5kgp_e</t>
+  </si>
+  <si>
+    <t>EX_sbt__D_e</t>
+  </si>
+  <si>
+    <t>EX_HC00822_e</t>
+  </si>
+  <si>
+    <t>EX_glcur_e</t>
+  </si>
+  <si>
+    <t>EX_alaala_e</t>
+  </si>
+  <si>
+    <t>EX_mana_e</t>
+  </si>
+  <si>
+    <t>EX_asp__D_e</t>
+  </si>
+  <si>
+    <t>EX_srb__L_e</t>
+  </si>
+  <si>
+    <t>EX_xylt_e</t>
+  </si>
+  <si>
+    <t>EX_lald__L_e</t>
+  </si>
+  <si>
+    <t>EX_13dpg_e</t>
+  </si>
+  <si>
+    <t>EX_rmn_e</t>
+  </si>
+  <si>
+    <t>EX_C00072_e</t>
+  </si>
+  <si>
+    <t>EX_mthgxl_e</t>
+  </si>
+  <si>
+    <t>EX_C00261_e</t>
+  </si>
+  <si>
+    <t>EX_C01326_e</t>
+  </si>
+  <si>
+    <t>EX_C03912_e</t>
+  </si>
+  <si>
+    <t>EX_glcn__D_e</t>
+  </si>
+  <si>
+    <t>EX_HC00832_e</t>
+  </si>
+  <si>
+    <t>EX_inost_e</t>
+  </si>
+  <si>
+    <t>EX_C07086_e</t>
+  </si>
+  <si>
+    <t>EX_galt_e</t>
+  </si>
+  <si>
+    <t>EX_C00819_e</t>
+  </si>
+  <si>
+    <t>EX_4h2oxg_e</t>
+  </si>
+  <si>
+    <t>EX_C16737_e</t>
   </si>
 </sst>
 </file>
@@ -805,11 +1035,665 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22685EC5-16DE-4AFB-A090-DFD06D9263EB}">
+  <dimension ref="A1:D77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection sqref="A1:B77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15">
+        <v>9.3800000000000008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>61</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F2E160-0E44-4C80-A334-F20DED143A47}">
   <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1012,7 +1896,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1020,7 +1904,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1028,7 +1912,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1036,7 +1920,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1044,7 +1928,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1052,7 +1936,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1060,7 +1944,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1068,7 +1952,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1076,7 +1960,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1084,7 +1968,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1092,7 +1976,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1100,7 +1984,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1108,7 +1992,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1116,7 +2000,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1124,7 +2008,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1132,7 +2016,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1140,7 +2024,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1148,7 +2032,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1156,7 +2040,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1164,7 +2048,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1172,7 +2056,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1180,7 +2064,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1188,7 +2072,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1196,7 +2080,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1204,7 +2088,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1212,7 +2096,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1220,7 +2104,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1228,7 +2112,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1236,7 +2120,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1244,7 +2128,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1252,7 +2136,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1260,7 +2144,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1268,7 +2152,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1276,7 +2160,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1284,7 +2168,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1292,7 +2176,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1300,7 +2184,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1308,7 +2192,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1316,7 +2200,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1324,7 +2208,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1332,7 +2216,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1340,7 +2224,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1348,7 +2232,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1356,7 +2240,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1364,7 +2248,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1372,7 +2256,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1380,7 +2264,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1388,7 +2272,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1396,7 +2280,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1404,7 +2288,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1412,7 +2296,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1420,7 +2304,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1428,7 +2312,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1436,7 +2320,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1444,7 +2328,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1452,7 +2336,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1460,7 +2344,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1468,7 +2352,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1476,7 +2360,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1484,7 +2368,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1492,7 +2376,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1500,7 +2384,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1508,7 +2392,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1516,7 +2400,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1524,7 +2408,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1532,7 +2416,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1540,7 +2424,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1548,7 +2432,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1556,7 +2440,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1564,7 +2448,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1572,7 +2456,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1580,7 +2464,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1588,7 +2472,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -1596,7 +2480,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -1604,7 +2488,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -1612,7 +2496,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1620,7 +2504,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -1628,7 +2512,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1636,7 +2520,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1644,7 +2528,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -1652,7 +2536,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -1660,7 +2544,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -1668,7 +2552,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -1676,7 +2560,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -1684,7 +2568,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -1692,7 +2576,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -1700,7 +2584,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -1708,7 +2592,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -1716,7 +2600,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -1724,7 +2608,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -1732,7 +2616,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -1740,7 +2624,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -1748,7 +2632,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -1756,7 +2640,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -1764,7 +2648,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -1772,7 +2656,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -1780,7 +2664,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -1788,7 +2672,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -1796,7 +2680,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -1804,7 +2688,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -1812,7 +2696,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -1820,7 +2704,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -1828,7 +2712,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -1836,7 +2720,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -1844,7 +2728,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -1852,7 +2736,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -1860,7 +2744,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -1868,7 +2752,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -1876,7 +2760,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -1884,7 +2768,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -1892,7 +2776,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -1900,7 +2784,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -1908,7 +2792,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -1916,7 +2800,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -1924,9 +2808,1989 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCF382F-D75E-4447-BB31-B6B9F6F7A60E}">
+  <dimension ref="A1:B105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>139</v>
       </c>
-      <c r="B139">
+      <c r="B20">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>166</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>173</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>174</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>69</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>86</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>169</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>61</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>170</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>152</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02346A24-1580-4C64-B8C8-03FE59A3BFAA}">
+  <dimension ref="A1:B138"/>
+  <sheetViews>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection sqref="A1:B138"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19">
+        <v>8.83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>204</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>175</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>179</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>205</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>192</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>212</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>200</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>148</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>150</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>210</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>63</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>193</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>158</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>74</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>195</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>157</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>122</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>202</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>196</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>169</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>50</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>143</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>207</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>213</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>49</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>61</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>160</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>89</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>45</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>208</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>60</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>153</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>69</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>185</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>154</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>197</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>112</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>168</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>152</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>198</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>98</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>43</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>54</v>
+      </c>
+      <c r="B138">
         <v>0</v>
       </c>
     </row>

--- a/environmental_conditions/wild_type_conditions.xlsx
+++ b/environmental_conditions/wild_type_conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/id8006_uminho_pt/Documents/Pycharm_projects/lab_models/environmental_conditions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="13_ncr:1_{FCA6B269-E553-4911-B379-7AAEED1BFC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{09E343B3-98F3-4F2B-B759-FC80F0204251}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="13_ncr:1_{FCA6B269-E553-4911-B379-7AAEED1BFC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8ECC3293-1372-455C-AD0A-D32453F3236D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49D59947-69D5-4711-8775-965F805B02F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{49D59947-69D5-4711-8775-965F805B02F1}"/>
   </bookViews>
   <sheets>
     <sheet name="iCC390" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'iCC390'!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'iCC464'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'iCC644'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'iCC644'!$A$1:$A$136</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="3">'iCC644'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="214">
   <si>
     <t>exchange</t>
   </si>
@@ -690,8 +691,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -719,9 +728,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22685EC5-16DE-4AFB-A090-DFD06D9263EB}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection sqref="A1:B77"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1096,7 +1106,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B7">
@@ -1396,7 +1406,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B42">
@@ -1492,7 +1502,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B54">
@@ -1500,7 +1510,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B55">
@@ -1572,7 +1582,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B64">
@@ -1612,7 +1622,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="A69" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B69">
@@ -1620,7 +1630,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="A70" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B70">
@@ -1628,7 +1638,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B71">
@@ -1685,6 +1695,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1692,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F2E160-0E44-4C80-A334-F20DED143A47}">
   <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A43"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2047,7 +2058,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -2079,7 +2090,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -2159,7 +2170,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -2255,7 +2266,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -2263,7 +2274,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -2279,7 +2290,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -2319,7 +2330,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -2327,7 +2338,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -2335,7 +2346,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -2343,7 +2354,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -2351,7 +2362,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -2824,7 +2835,7 @@
   <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2921,7 +2932,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B12">
@@ -3169,7 +3180,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B43">
@@ -3225,7 +3236,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B50">
@@ -3249,7 +3260,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B53">
@@ -3401,7 +3412,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="A72" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B72">
@@ -3409,7 +3420,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="A73" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B73">
@@ -3489,7 +3500,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="A83" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B83">
@@ -3569,7 +3580,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="A93" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B93">
@@ -3679,10 +3690,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02346A24-1580-4C64-B8C8-03FE59A3BFAA}">
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection sqref="A1:B138"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3699,8 +3710,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>17</v>
+      <c r="A2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B2">
         <v>999999</v>
@@ -3708,7 +3719,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>999999</v>
@@ -3716,7 +3727,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>999999</v>
@@ -3724,7 +3735,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="B5">
         <v>999999</v>
@@ -3732,7 +3743,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>999999</v>
@@ -3740,7 +3751,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>999999</v>
@@ -3748,7 +3759,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>999999</v>
@@ -3756,7 +3767,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>999999</v>
@@ -3764,7 +3775,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="B10">
         <v>999999</v>
@@ -3772,7 +3783,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>999999</v>
@@ -3780,7 +3791,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>999999</v>
@@ -3788,7 +3799,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>999999</v>
@@ -3796,7 +3807,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>999999</v>
@@ -3804,7 +3815,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>999999</v>
@@ -3812,7 +3823,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>999999</v>
@@ -3820,7 +3831,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="B17">
         <v>999999</v>
@@ -3828,7 +3839,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>999999</v>
@@ -3844,7 +3855,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3852,7 +3863,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3860,7 +3871,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3868,7 +3879,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3876,7 +3887,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3884,7 +3895,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3892,7 +3903,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3900,7 +3911,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3908,7 +3919,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3916,7 +3927,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3924,7 +3935,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3932,7 +3943,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3940,7 +3951,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3948,7 +3959,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3956,7 +3967,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3964,7 +3975,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3972,7 +3983,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3980,7 +3991,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3988,7 +3999,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4004,7 +4015,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4012,7 +4023,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4020,7 +4031,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4028,7 +4039,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4036,7 +4047,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4044,7 +4055,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4052,15 +4063,15 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>186</v>
+      <c r="A47" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4068,7 +4079,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4076,15 +4087,15 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>70</v>
+      <c r="A50" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4092,7 +4103,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4100,7 +4111,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4108,7 +4119,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4116,7 +4127,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4124,7 +4135,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4132,7 +4143,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4140,7 +4151,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4148,7 +4159,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4156,7 +4167,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4164,7 +4175,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4172,7 +4183,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4180,7 +4191,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4188,7 +4199,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -4196,23 +4207,23 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>175</v>
+      <c r="A65" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>77</v>
+      <c r="A66" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -4220,7 +4231,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -4228,7 +4239,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -4236,7 +4247,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -4244,7 +4255,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -4252,7 +4263,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -4260,15 +4271,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>156</v>
+      <c r="A73" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -4276,7 +4287,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -4284,15 +4295,15 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>86</v>
+      <c r="A76" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -4300,15 +4311,15 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>205</v>
+      <c r="A78" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -4316,7 +4327,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -4324,15 +4335,15 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>212</v>
+      <c r="A81" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -4340,7 +4351,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4348,7 +4359,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4356,7 +4367,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>200</v>
+        <v>54</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4364,7 +4375,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4372,7 +4383,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4380,7 +4391,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4388,7 +4399,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4396,7 +4407,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4404,7 +4415,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4412,7 +4423,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4420,7 +4431,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4428,7 +4439,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4436,7 +4447,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4444,7 +4455,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4452,7 +4463,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4460,7 +4471,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4468,7 +4479,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4476,7 +4487,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4484,7 +4495,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4492,31 +4503,31 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>88</v>
+      <c r="A102" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>195</v>
+      <c r="A103" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>142</v>
+      <c r="A104" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4524,7 +4535,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4532,7 +4543,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4540,7 +4551,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4548,7 +4559,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4556,7 +4567,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4564,7 +4575,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4572,7 +4583,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4580,7 +4591,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4588,7 +4599,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4596,7 +4607,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -4604,7 +4615,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4612,7 +4623,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4620,7 +4631,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4628,7 +4639,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4636,7 +4647,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -4644,7 +4655,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -4652,7 +4663,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -4660,7 +4671,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4668,7 +4679,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -4676,7 +4687,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4684,7 +4695,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4692,7 +4703,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4700,15 +4711,15 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>69</v>
+      <c r="A128" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -4716,7 +4727,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -4724,7 +4735,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -4732,7 +4743,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -4740,7 +4751,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -4748,7 +4759,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -4756,7 +4767,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -4764,7 +4775,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -4772,29 +4783,16 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>43</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>54</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B139">
+    <sortCondition descending="1" ref="B1:B139"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/environmental_conditions/wild_type_conditions.xlsx
+++ b/environmental_conditions/wild_type_conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/id8006_uminho_pt/Documents/Pycharm_projects/lab_models/environmental_conditions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="258" documentId="13_ncr:1_{FCA6B269-E553-4911-B379-7AAEED1BFC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8ECC3293-1372-455C-AD0A-D32453F3236D}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="13_ncr:1_{FCA6B269-E553-4911-B379-7AAEED1BFC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{43CF5474-A540-4787-9A88-97A83F2B8CC2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{49D59947-69D5-4711-8775-965F805B02F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{49D59947-69D5-4711-8775-965F805B02F1}"/>
   </bookViews>
   <sheets>
     <sheet name="iCC390" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="214">
   <si>
     <t>exchange</t>
   </si>
@@ -1046,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22685EC5-16DE-4AFB-A090-DFD06D9263EB}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B72" sqref="A72:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1646,8 +1646,8 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>93</v>
+      <c r="A72" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1687,9 +1687,17 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>61</v>
       </c>
-      <c r="B77">
+      <c r="B78">
         <v>0</v>
       </c>
     </row>
@@ -2832,10 +2840,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCF382F-D75E-4447-BB31-B6B9F6F7A60E}">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B95" sqref="A95:B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3180,16 +3188,16 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>175</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3197,7 +3205,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3205,7 +3213,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3213,7 +3221,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3221,7 +3229,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3229,23 +3237,23 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>96</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>27</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3253,23 +3261,23 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>176</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>156</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3277,7 +3285,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3285,7 +3293,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3293,7 +3301,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3301,7 +3309,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3309,7 +3317,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3317,7 +3325,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3325,7 +3333,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3333,7 +3341,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3341,7 +3349,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3349,7 +3357,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3357,7 +3365,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3365,7 +3373,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3373,7 +3381,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3381,7 +3389,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3389,7 +3397,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3397,7 +3405,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3405,15 +3413,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>160</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3421,15 +3429,15 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>97</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3437,7 +3445,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3445,7 +3453,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3453,7 +3461,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3461,7 +3469,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3469,7 +3477,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3477,7 +3485,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3485,7 +3493,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3493,23 +3501,23 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>147</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>148</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3517,7 +3525,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -3525,7 +3533,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -3533,7 +3541,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3541,7 +3549,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3549,7 +3557,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3557,7 +3565,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3565,7 +3573,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -3573,31 +3581,31 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>174</v>
       </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>106</v>
-      </c>
       <c r="B94">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>93</v>
+      <c r="A95" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -3605,7 +3613,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3613,7 +3621,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -3621,7 +3629,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3629,7 +3637,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -3637,7 +3645,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3645,7 +3653,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -3653,7 +3661,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3661,7 +3669,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3669,7 +3677,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3677,9 +3685,25 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>170</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>152</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>112</v>
       </c>
-      <c r="B105">
+      <c r="B107">
         <v>0</v>
       </c>
     </row>
@@ -3692,8 +3716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02346A24-1580-4C64-B8C8-03FE59A3BFAA}">
   <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/environmental_conditions/wild_type_conditions.xlsx
+++ b/environmental_conditions/wild_type_conditions.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/id8006_uminho_pt/Documents/Pycharm_projects/lab_models/environmental_conditions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="273" documentId="13_ncr:1_{FCA6B269-E553-4911-B379-7AAEED1BFC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{43CF5474-A540-4787-9A88-97A83F2B8CC2}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="13_ncr:1_{FCA6B269-E553-4911-B379-7AAEED1BFC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{96385D1A-30C1-4E66-ABAA-3EA6EE99F86C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{49D59947-69D5-4711-8775-965F805B02F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{49D59947-69D5-4711-8775-965F805B02F1}"/>
   </bookViews>
   <sheets>
-    <sheet name="iCC390" sheetId="2" r:id="rId1"/>
+    <sheet name="iCC389" sheetId="2" r:id="rId1"/>
     <sheet name="iCC431" sheetId="1" r:id="rId2"/>
-    <sheet name="iCC464" sheetId="4" r:id="rId3"/>
-    <sheet name="iCC644" sheetId="3" r:id="rId4"/>
+    <sheet name="iCC470" sheetId="4" r:id="rId3"/>
+    <sheet name="iCC651" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'iCC390'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'iCC464'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'iCC644'!$A$1:$A$136</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="3">'iCC644'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'iCC389'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'iCC470'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'iCC651'!$A$1:$A$137</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="3">'iCC651'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="214">
   <si>
     <t>exchange</t>
   </si>
@@ -1046,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22685EC5-16DE-4AFB-A090-DFD06D9263EB}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B72" sqref="A72:B72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1057,7 +1057,7 @@
     <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>72</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1169,195 +1169,175 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>9.3800000000000008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>42</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>140</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>41</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>159</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>122</v>
       </c>
@@ -1365,15 +1345,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1381,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -1389,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>139</v>
       </c>
@@ -1397,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1405,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>47</v>
       </c>
@@ -1413,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -1421,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1429,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>153</v>
       </c>
@@ -1437,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -1445,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -1453,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -1711,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F2E160-0E44-4C80-A334-F20DED143A47}">
   <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2842,7 +2822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCF382F-D75E-4447-BB31-B6B9F6F7A60E}">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B95" sqref="A95:B95"/>
     </sheetView>
   </sheetViews>
@@ -3714,10 +3694,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02346A24-1580-4C64-B8C8-03FE59A3BFAA}">
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4574,8 +4554,8 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>153</v>
+      <c r="A107" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4583,7 +4563,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4591,7 +4571,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4599,7 +4579,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4607,7 +4587,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4615,7 +4595,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4623,7 +4603,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4631,7 +4611,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -4639,7 +4619,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4647,7 +4627,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4655,7 +4635,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4663,7 +4643,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4671,7 +4651,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -4679,7 +4659,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -4687,7 +4667,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -4695,7 +4675,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4703,7 +4683,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -4711,7 +4691,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4719,7 +4699,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4727,7 +4707,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4735,23 +4715,23 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>190</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>196</v>
       </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>45</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -4759,7 +4739,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -4767,7 +4747,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -4775,7 +4755,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -4783,7 +4763,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -4791,7 +4771,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -4799,7 +4779,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -4807,15 +4787,23 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>197</v>
       </c>
-      <c r="B136">
+      <c r="B137">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B139">
-    <sortCondition descending="1" ref="B1:B139"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B140">
+    <sortCondition descending="1" ref="B1:B140"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/environmental_conditions/wild_type_conditions.xlsx
+++ b/environmental_conditions/wild_type_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/id8006_uminho_pt/Documents/Pycharm_projects/lab_models/environmental_conditions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="13_ncr:1_{FCA6B269-E553-4911-B379-7AAEED1BFC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{96385D1A-30C1-4E66-ABAA-3EA6EE99F86C}"/>
+  <xr:revisionPtr revIDLastSave="293" documentId="13_ncr:1_{FCA6B269-E553-4911-B379-7AAEED1BFC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1ECAA902-C908-4605-9A00-CE0D487CB3DC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{49D59947-69D5-4711-8775-965F805B02F1}"/>
   </bookViews>
@@ -3696,8 +3696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02346A24-1580-4C64-B8C8-03FE59A3BFAA}">
   <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3854,7 +3854,7 @@
         <v>59</v>
       </c>
       <c r="B19">
-        <v>8.83</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -3878,7 +3878,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -3894,7 +3894,7 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -3902,7 +3902,7 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -3982,7 +3982,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.17799999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">

--- a/environmental_conditions/wild_type_conditions.xlsx
+++ b/environmental_conditions/wild_type_conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/id8006_uminho_pt/Documents/Pycharm_projects/lab_models/environmental_conditions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="293" documentId="13_ncr:1_{FCA6B269-E553-4911-B379-7AAEED1BFC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1ECAA902-C908-4605-9A00-CE0D487CB3DC}"/>
+  <xr:revisionPtr revIDLastSave="306" documentId="13_ncr:1_{FCA6B269-E553-4911-B379-7AAEED1BFC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB4039E4-A4ED-4BD1-8352-5230AC0940CA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{49D59947-69D5-4711-8775-965F805B02F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49D59947-69D5-4711-8775-965F805B02F1}"/>
   </bookViews>
   <sheets>
     <sheet name="iCC389" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="213">
   <si>
     <t>exchange</t>
   </si>
@@ -553,9 +553,6 @@
   </si>
   <si>
     <t>EX_acmum_e</t>
-  </si>
-  <si>
-    <t>EX_C16639_e</t>
   </si>
   <si>
     <t>EX_amp_e</t>
@@ -1046,9 +1043,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22685EC5-16DE-4AFB-A090-DFD06D9263EB}">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1171,10 +1168,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B15">
-        <v>4.6900000000000004</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1347,7 +1344,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1670,14 +1667,6 @@
         <v>112</v>
       </c>
       <c r="B77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>61</v>
-      </c>
-      <c r="B78">
         <v>0</v>
       </c>
     </row>
@@ -1692,7 +1681,7 @@
   <dimension ref="A1:B139"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A2" sqref="A2:B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2822,8 +2811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCF382F-D75E-4447-BB31-B6B9F6F7A60E}">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B95" sqref="A95:B95"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2841,7 +2830,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2">
         <v>999999</v>
@@ -3185,7 +3174,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3217,7 +3206,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3249,7 +3238,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3297,7 +3286,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3313,7 +3302,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3329,7 +3318,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3353,7 +3342,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3521,7 +3510,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3553,7 +3542,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -3569,7 +3558,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -3665,7 +3654,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -3673,7 +3662,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -3681,7 +3670,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -3696,8 +3685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02346A24-1580-4C64-B8C8-03FE59A3BFAA}">
   <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3739,7 +3728,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5">
         <v>999999</v>
@@ -4019,7 +4008,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4043,7 +4032,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4051,7 +4040,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4059,7 +4048,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4115,7 +4104,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4131,7 +4120,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4139,7 +4128,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4147,7 +4136,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4155,7 +4144,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4163,7 +4152,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4171,7 +4160,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4187,7 +4176,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4195,7 +4184,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4203,7 +4192,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -4243,7 +4232,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -4339,7 +4328,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -4363,7 +4352,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4387,7 +4376,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -4395,7 +4384,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4443,7 +4432,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4451,7 +4440,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4499,7 +4488,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4507,7 +4496,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4531,7 +4520,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4579,7 +4568,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4587,7 +4576,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4595,7 +4584,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4603,7 +4592,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4667,7 +4656,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -4699,7 +4688,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4715,7 +4704,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -4723,7 +4712,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -4747,7 +4736,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -4795,7 +4784,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B137">
         <v>0</v>
